--- a/Artefatos/23 - Matriz de Rastreabilidade (Características x SSS).xlsx
+++ b/Artefatos/23 - Matriz de Rastreabilidade (Características x SSS).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Leonardo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Leonardo\Documents\Faculdade\3º Sem\Engenharia de Requisitos\AC05\smart-owl\Artefatos\Pendentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB2FDBA-87D3-4442-B8E1-A78E211E427A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638331BE-025C-4B9C-B37F-35FBF0407E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="4080" windowWidth="15300" windowHeight="8010" xr2:uid="{3DC4A3A2-2988-40D2-94CF-2EC7F8E4C31B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DC4A3A2-2988-40D2-94CF-2EC7F8E4C31B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>CAR-001</t>
   </si>
@@ -547,7 +547,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M16" sqref="E15:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,9 @@
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -901,12 +903,16 @@
       <c r="H17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
